--- a/src/main/resources/jxls/t2.xlsx
+++ b/src/main/resources/jxls/t2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28425" windowHeight="7350"/>
+    <workbookView windowWidth="19875" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Johann Ting:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Johann Ting:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -1221,7 +1221,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
